--- a/natmiOut/OldD7/LR-pairs_lrc2p/Angptl2-Itga5.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Angptl2-Itga5.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.90235139156522</v>
+        <v>8.204228666666666</v>
       </c>
       <c r="H2">
-        <v>5.90235139156522</v>
+        <v>24.612686</v>
       </c>
       <c r="I2">
-        <v>0.05714684861052122</v>
+        <v>0.07326752815431403</v>
       </c>
       <c r="J2">
-        <v>0.05714684861052122</v>
+        <v>0.07326752815431405</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N2">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O2">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P2">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q2">
-        <v>169.3130180863054</v>
+        <v>254.2622825355822</v>
       </c>
       <c r="R2">
-        <v>169.3130180863054</v>
+        <v>2288.36054282024</v>
       </c>
       <c r="S2">
-        <v>0.02046938298478078</v>
+        <v>0.02636987708270958</v>
       </c>
       <c r="T2">
-        <v>0.02046938298478078</v>
+        <v>0.02636987708270957</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.90235139156522</v>
+        <v>8.204228666666666</v>
       </c>
       <c r="H3">
-        <v>5.90235139156522</v>
+        <v>24.612686</v>
       </c>
       <c r="I3">
-        <v>0.05714684861052122</v>
+        <v>0.07326752815431403</v>
       </c>
       <c r="J3">
-        <v>0.05714684861052122</v>
+        <v>0.07326752815431405</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N3">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O3">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P3">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q3">
-        <v>174.3340840662526</v>
+        <v>245.4152990435113</v>
       </c>
       <c r="R3">
-        <v>174.3340840662526</v>
+        <v>2208.737691391602</v>
       </c>
       <c r="S3">
-        <v>0.02107641322791898</v>
+        <v>0.02545234474204075</v>
       </c>
       <c r="T3">
-        <v>0.02107641322791898</v>
+        <v>0.02545234474204075</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.90235139156522</v>
+        <v>8.204228666666666</v>
       </c>
       <c r="H4">
-        <v>5.90235139156522</v>
+        <v>24.612686</v>
       </c>
       <c r="I4">
-        <v>0.05714684861052122</v>
+        <v>0.07326752815431403</v>
       </c>
       <c r="J4">
-        <v>0.05714684861052122</v>
+        <v>0.07326752815431405</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N4">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O4">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P4">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q4">
-        <v>96.0001024082037</v>
+        <v>157.112767488516</v>
       </c>
       <c r="R4">
-        <v>96.0001024082037</v>
+        <v>1414.014907396644</v>
       </c>
       <c r="S4">
-        <v>0.01160609435105592</v>
+        <v>0.01629437258833978</v>
       </c>
       <c r="T4">
-        <v>0.01160609435105592</v>
+        <v>0.01629437258833978</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.90235139156522</v>
+        <v>8.204228666666666</v>
       </c>
       <c r="H5">
-        <v>5.90235139156522</v>
+        <v>24.612686</v>
       </c>
       <c r="I5">
-        <v>0.05714684861052122</v>
+        <v>0.07326752815431403</v>
       </c>
       <c r="J5">
-        <v>0.05714684861052122</v>
+        <v>0.07326752815431405</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N5">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O5">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P5">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q5">
-        <v>33.04439633226627</v>
+        <v>49.66607034705866</v>
       </c>
       <c r="R5">
-        <v>33.04439633226627</v>
+        <v>446.9946331235279</v>
       </c>
       <c r="S5">
-        <v>0.003994958046765532</v>
+        <v>0.005150933741223935</v>
       </c>
       <c r="T5">
-        <v>0.003994958046765532</v>
+        <v>0.005150933741223935</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>79.9287724728803</v>
+        <v>81.515531</v>
       </c>
       <c r="H6">
-        <v>79.9287724728803</v>
+        <v>244.546593</v>
       </c>
       <c r="I6">
-        <v>0.7738741998078843</v>
+        <v>0.7279711116319884</v>
       </c>
       <c r="J6">
-        <v>0.7738741998078843</v>
+        <v>0.7279711116319885</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N6">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O6">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P6">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q6">
-        <v>2292.811932318421</v>
+        <v>2526.297817413346</v>
       </c>
       <c r="R6">
-        <v>2292.811932318421</v>
+        <v>22736.68035672012</v>
       </c>
       <c r="S6">
-        <v>0.2771933669670796</v>
+        <v>0.2620056826957207</v>
       </c>
       <c r="T6">
-        <v>0.2771933669670796</v>
+        <v>0.2620056826957206</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>79.9287724728803</v>
+        <v>81.515531</v>
       </c>
       <c r="H7">
-        <v>79.9287724728803</v>
+        <v>244.546593</v>
       </c>
       <c r="I7">
-        <v>0.7738741998078843</v>
+        <v>0.7279711116319884</v>
       </c>
       <c r="J7">
-        <v>0.7738741998078843</v>
+        <v>0.7279711116319885</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N7">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O7">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P7">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q7">
-        <v>2360.806467658359</v>
+        <v>2438.396006480839</v>
       </c>
       <c r="R7">
-        <v>2360.806467658359</v>
+        <v>21945.56405832755</v>
       </c>
       <c r="S7">
-        <v>0.2854136810367039</v>
+        <v>0.2528892698069414</v>
       </c>
       <c r="T7">
-        <v>0.2854136810367039</v>
+        <v>0.2528892698069414</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>79.9287724728803</v>
+        <v>81.515531</v>
       </c>
       <c r="H8">
-        <v>79.9287724728803</v>
+        <v>244.546593</v>
       </c>
       <c r="I8">
-        <v>0.7738741998078843</v>
+        <v>0.7279711116319884</v>
       </c>
       <c r="J8">
-        <v>0.7738741998078843</v>
+        <v>0.7279711116319885</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N8">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O8">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P8">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q8">
-        <v>1300.019235337953</v>
+        <v>1561.040189035758</v>
       </c>
       <c r="R8">
-        <v>1300.019235337953</v>
+        <v>14049.36170132182</v>
       </c>
       <c r="S8">
-        <v>0.1571680188356809</v>
+        <v>0.1618975394051298</v>
       </c>
       <c r="T8">
-        <v>0.1571680188356809</v>
+        <v>0.1618975394051297</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>79.9287724728803</v>
+        <v>81.515531</v>
       </c>
       <c r="H9">
-        <v>79.9287724728803</v>
+        <v>244.546593</v>
       </c>
       <c r="I9">
-        <v>0.7738741998078843</v>
+        <v>0.7279711116319884</v>
       </c>
       <c r="J9">
-        <v>0.7738741998078843</v>
+        <v>0.7279711116319885</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N9">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O9">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P9">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q9">
-        <v>447.4823440230629</v>
+        <v>493.471874263196</v>
       </c>
       <c r="R9">
-        <v>447.4823440230629</v>
+        <v>4441.246868368764</v>
       </c>
       <c r="S9">
-        <v>0.05409913296841982</v>
+        <v>0.05117861972419659</v>
       </c>
       <c r="T9">
-        <v>0.05409913296841982</v>
+        <v>0.05117861972419659</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.99254550912339</v>
+        <v>2.363806</v>
       </c>
       <c r="H10">
-        <v>1.99254550912339</v>
+        <v>7.091418</v>
       </c>
       <c r="I10">
-        <v>0.01929192096596814</v>
+        <v>0.02110987268797113</v>
       </c>
       <c r="J10">
-        <v>0.01929192096596814</v>
+        <v>0.02110987268797113</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N10">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O10">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P10">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q10">
-        <v>57.15754136666725</v>
+        <v>73.25816154701333</v>
       </c>
       <c r="R10">
-        <v>57.15754136666725</v>
+        <v>659.32345392312</v>
       </c>
       <c r="S10">
-        <v>0.006910157399157451</v>
+        <v>0.007597700673632865</v>
       </c>
       <c r="T10">
-        <v>0.006910157399157451</v>
+        <v>0.007597700673632865</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.99254550912339</v>
+        <v>2.363806</v>
       </c>
       <c r="H11">
-        <v>1.99254550912339</v>
+        <v>7.091418</v>
       </c>
       <c r="I11">
-        <v>0.01929192096596814</v>
+        <v>0.02110987268797113</v>
       </c>
       <c r="J11">
-        <v>0.01929192096596814</v>
+        <v>0.02110987268797113</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N11">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O11">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P11">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q11">
-        <v>58.85257810806718</v>
+        <v>70.70916474181399</v>
       </c>
       <c r="R11">
-        <v>58.85257810806718</v>
+        <v>636.382482676326</v>
       </c>
       <c r="S11">
-        <v>0.007115081725858095</v>
+        <v>0.007333340848939167</v>
       </c>
       <c r="T11">
-        <v>0.007115081725858095</v>
+        <v>0.007333340848939167</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.99254550912339</v>
+        <v>2.363806</v>
       </c>
       <c r="H12">
-        <v>1.99254550912339</v>
+        <v>7.091418</v>
       </c>
       <c r="I12">
-        <v>0.01929192096596814</v>
+        <v>0.02110987268797113</v>
       </c>
       <c r="J12">
-        <v>0.01929192096596814</v>
+        <v>0.02110987268797113</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N12">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O12">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P12">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q12">
-        <v>32.40819806191272</v>
+        <v>45.26740020970799</v>
       </c>
       <c r="R12">
-        <v>32.40819806191272</v>
+        <v>407.406601887372</v>
       </c>
       <c r="S12">
-        <v>0.003918043783483757</v>
+        <v>0.004694741852703899</v>
       </c>
       <c r="T12">
-        <v>0.003918043783483757</v>
+        <v>0.004694741852703899</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.99254550912339</v>
+        <v>2.363806</v>
       </c>
       <c r="H13">
-        <v>1.99254550912339</v>
+        <v>7.091418</v>
       </c>
       <c r="I13">
-        <v>0.01929192096596814</v>
+        <v>0.02110987268797113</v>
       </c>
       <c r="J13">
-        <v>0.01929192096596814</v>
+        <v>0.02110987268797113</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N13">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O13">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P13">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q13">
-        <v>11.15529373727952</v>
+        <v>14.309810203096</v>
       </c>
       <c r="R13">
-        <v>11.15529373727952</v>
+        <v>128.788291827864</v>
       </c>
       <c r="S13">
-        <v>0.001348638057468838</v>
+        <v>0.0014840893126952</v>
       </c>
       <c r="T13">
-        <v>0.001348638057468838</v>
+        <v>0.0014840893126952</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.460265525311</v>
+        <v>19.892761</v>
       </c>
       <c r="H14">
-        <v>15.460265525311</v>
+        <v>59.67828300000001</v>
       </c>
       <c r="I14">
-        <v>0.1496870306156264</v>
+        <v>0.1776514875257265</v>
       </c>
       <c r="J14">
-        <v>0.1496870306156264</v>
+        <v>0.1776514875257265</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N14">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O14">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P14">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q14">
-        <v>443.4883731671401</v>
+        <v>616.5087570444134</v>
       </c>
       <c r="R14">
-        <v>443.4883731671401</v>
+        <v>5548.57881339972</v>
       </c>
       <c r="S14">
-        <v>0.0536162751232052</v>
+        <v>0.06393893731131811</v>
       </c>
       <c r="T14">
-        <v>0.0536162751232052</v>
+        <v>0.0639389373113181</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.460265525311</v>
+        <v>19.892761</v>
       </c>
       <c r="H15">
-        <v>15.460265525311</v>
+        <v>59.67828300000001</v>
       </c>
       <c r="I15">
-        <v>0.1496870306156264</v>
+        <v>0.1776514875257265</v>
       </c>
       <c r="J15">
-        <v>0.1496870306156264</v>
+        <v>0.1776514875257265</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N15">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O15">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P15">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q15">
-        <v>456.6402524979815</v>
+        <v>595.0575109457091</v>
       </c>
       <c r="R15">
-        <v>456.6402524979815</v>
+        <v>5355.517598511382</v>
       </c>
       <c r="S15">
-        <v>0.05520629376462702</v>
+        <v>0.0617142002514098</v>
       </c>
       <c r="T15">
-        <v>0.05520629376462702</v>
+        <v>0.06171420025140979</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.460265525311</v>
+        <v>19.892761</v>
       </c>
       <c r="H16">
-        <v>15.460265525311</v>
+        <v>59.67828300000001</v>
       </c>
       <c r="I16">
-        <v>0.1496870306156264</v>
+        <v>0.1776514875257265</v>
       </c>
       <c r="J16">
-        <v>0.1496870306156264</v>
+        <v>0.1776514875257265</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N16">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O16">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P16">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q16">
-        <v>251.4569152573432</v>
+        <v>380.9507097718981</v>
       </c>
       <c r="R16">
-        <v>251.4569152573432</v>
+        <v>3428.556387947082</v>
       </c>
       <c r="S16">
-        <v>0.03040030802563813</v>
+        <v>0.03950890116724295</v>
       </c>
       <c r="T16">
-        <v>0.03040030802563813</v>
+        <v>0.03950890116724295</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.460265525311</v>
+        <v>19.892761</v>
       </c>
       <c r="H17">
-        <v>15.460265525311</v>
+        <v>59.67828300000001</v>
       </c>
       <c r="I17">
-        <v>0.1496870306156264</v>
+        <v>0.1776514875257265</v>
       </c>
       <c r="J17">
-        <v>0.1496870306156264</v>
+        <v>0.1776514875257265</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N17">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O17">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P17">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q17">
-        <v>86.55451150375727</v>
+        <v>120.425125549876</v>
       </c>
       <c r="R17">
-        <v>86.55451150375727</v>
+        <v>1083.826129948884</v>
       </c>
       <c r="S17">
-        <v>0.01046415370215602</v>
+        <v>0.01248944879575561</v>
       </c>
       <c r="T17">
-        <v>0.01046415370215602</v>
+        <v>0.01248944879575561</v>
       </c>
     </row>
   </sheetData>
